--- a/meta_spreadsheet_secondcoder.xlsx
+++ b/meta_spreadsheet_secondcoder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/ajg17d_fsu_edu/Documents/Florida State University/Research Projects/meta_suicide_erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{821326A2-96D1-49BC-A4E1-10DFD57CD279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E222BC82-0FA6-4762-81BE-7759836BC39C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{8231316F-2BB6-D248-8A6B-1367055F5151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{80E6DDB7-CC6F-46F2-978B-EC80D4D3101A}"/>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="2438" windowWidth="4282" windowHeight="9487" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
+    <workbookView xWindow="1365" yWindow="4613" windowWidth="4283" windowHeight="8287" activeTab="3" xr2:uid="{FF3FF6FC-0C5E-41B5-84E2-C5FF2C3F66C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="972">
   <si>
     <t>Database</t>
   </si>
@@ -2896,6 +2896,63 @@
   </si>
   <si>
     <t>sean_N</t>
+  </si>
+  <si>
+    <t>Pegg et al.</t>
+  </si>
+  <si>
+    <t>Gallyer et al.</t>
+  </si>
+  <si>
+    <t>P3b</t>
+  </si>
+  <si>
+    <t>Target N2 at Fz</t>
+  </si>
+  <si>
+    <t>Target P3b at Pz</t>
+  </si>
+  <si>
+    <t>Novel N2 at Fz</t>
+  </si>
+  <si>
+    <t>Novel P3 at Cz</t>
+  </si>
+  <si>
+    <t>RewP win</t>
+  </si>
+  <si>
+    <t>RewP loss</t>
+  </si>
+  <si>
+    <t>delta RewP</t>
+  </si>
+  <si>
+    <t>delta RewP at Cz factor score</t>
+  </si>
+  <si>
+    <t>delta RewP at FCz factor score</t>
+  </si>
+  <si>
+    <t>RewP wins at Cz factor score</t>
+  </si>
+  <si>
+    <t>RewP losses at Cz factor score</t>
+  </si>
+  <si>
+    <t>RewP losses at FCz T1 factor score</t>
+  </si>
+  <si>
+    <t>RewP wins at FCz T1 factor score</t>
+  </si>
+  <si>
+    <t>delta RewP at FCz T1 factor score</t>
+  </si>
+  <si>
+    <t>RewP losses at FCz T2 factore score</t>
+  </si>
+  <si>
+    <t>RewP wins at Fcz T2 factor score</t>
   </si>
 </sst>
 </file>
@@ -2984,7 +3041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2998,6 +3055,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4145,7 +4203,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4240,7 +4298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012B83D4-73C9-416E-BE4F-2E210EAD970C}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A175" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
@@ -10458,12 +10516,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E90853A-A82C-4185-AE1B-AC3373DE1028}">
-  <dimension ref="A1:Z193"/>
+  <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="Q209" sqref="Q209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10472,9 +10530,10 @@
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.46484375" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.46484375" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="39.6640625" customWidth="1"/>
     <col min="13" max="13" width="12.1328125" bestFit="1" customWidth="1"/>
@@ -20652,6 +20711,783 @@
       </c>
       <c r="R193">
         <v>-0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>25</v>
+      </c>
+      <c r="B194" t="s">
+        <v>751</v>
+      </c>
+      <c r="C194">
+        <v>2020</v>
+      </c>
+      <c r="D194">
+        <v>193</v>
+      </c>
+      <c r="E194" t="s">
+        <v>786</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="G194" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="H194" s="13">
+        <v>14</v>
+      </c>
+      <c r="I194" s="13">
+        <v>14</v>
+      </c>
+      <c r="J194" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K194" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="L194" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="M194">
+        <v>-1.71</v>
+      </c>
+      <c r="N194">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O194">
+        <v>3.56</v>
+      </c>
+      <c r="P194">
+        <v>1.99</v>
+      </c>
+      <c r="Q194" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>25</v>
+      </c>
+      <c r="B195" t="s">
+        <v>751</v>
+      </c>
+      <c r="C195">
+        <v>2020</v>
+      </c>
+      <c r="D195">
+        <v>194</v>
+      </c>
+      <c r="E195" t="s">
+        <v>786</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="G195" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="H195" s="13">
+        <v>14</v>
+      </c>
+      <c r="I195" s="13">
+        <v>14</v>
+      </c>
+      <c r="J195" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K195" s="13" t="s">
+        <v>785</v>
+      </c>
+      <c r="L195" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="M195">
+        <v>-5.36</v>
+      </c>
+      <c r="N195">
+        <v>-2.15</v>
+      </c>
+      <c r="O195">
+        <v>7.5</v>
+      </c>
+      <c r="P195">
+        <v>3.66</v>
+      </c>
+      <c r="Q195" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>25</v>
+      </c>
+      <c r="B196" t="s">
+        <v>751</v>
+      </c>
+      <c r="C196">
+        <v>2020</v>
+      </c>
+      <c r="D196">
+        <v>195</v>
+      </c>
+      <c r="E196" t="s">
+        <v>786</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="G196" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="H196" s="13">
+        <v>14</v>
+      </c>
+      <c r="I196" s="13">
+        <v>14</v>
+      </c>
+      <c r="J196" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K196" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="L196" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="M196">
+        <v>14.87</v>
+      </c>
+      <c r="N196">
+        <v>13.69</v>
+      </c>
+      <c r="O196">
+        <v>7.07</v>
+      </c>
+      <c r="P196">
+        <v>9.65</v>
+      </c>
+      <c r="Q196" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>25</v>
+      </c>
+      <c r="B197" t="s">
+        <v>751</v>
+      </c>
+      <c r="C197">
+        <v>2020</v>
+      </c>
+      <c r="D197">
+        <v>196</v>
+      </c>
+      <c r="E197" t="s">
+        <v>786</v>
+      </c>
+      <c r="F197" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="G197" s="13">
+        <v>15.7</v>
+      </c>
+      <c r="H197" s="13">
+        <v>14</v>
+      </c>
+      <c r="I197" s="13">
+        <v>14</v>
+      </c>
+      <c r="J197" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K197" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="L197" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="M197">
+        <v>13.17</v>
+      </c>
+      <c r="N197">
+        <v>10.98</v>
+      </c>
+      <c r="O197">
+        <v>9.5</v>
+      </c>
+      <c r="P197">
+        <v>5.87</v>
+      </c>
+      <c r="Q197" s="13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>26</v>
+      </c>
+      <c r="B198" t="s">
+        <v>953</v>
+      </c>
+      <c r="C198">
+        <v>2020</v>
+      </c>
+      <c r="D198">
+        <v>197</v>
+      </c>
+      <c r="E198" t="s">
+        <v>943</v>
+      </c>
+      <c r="F198" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="G198" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K198" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L198" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q198" s="13">
+        <v>58</v>
+      </c>
+      <c r="R198">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>26</v>
+      </c>
+      <c r="B199" t="s">
+        <v>953</v>
+      </c>
+      <c r="C199">
+        <v>2020</v>
+      </c>
+      <c r="D199">
+        <v>198</v>
+      </c>
+      <c r="E199" t="s">
+        <v>943</v>
+      </c>
+      <c r="F199" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="G199" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="H199" s="13"/>
+      <c r="I199" s="13"/>
+      <c r="J199" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K199" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L199" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="Q199" s="13">
+        <v>58</v>
+      </c>
+      <c r="R199">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>26</v>
+      </c>
+      <c r="B200" t="s">
+        <v>953</v>
+      </c>
+      <c r="C200">
+        <v>2020</v>
+      </c>
+      <c r="D200">
+        <v>199</v>
+      </c>
+      <c r="E200" t="s">
+        <v>943</v>
+      </c>
+      <c r="F200" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="G200" s="13">
+        <v>15.9</v>
+      </c>
+      <c r="H200" s="13"/>
+      <c r="I200" s="13"/>
+      <c r="J200" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="K200" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L200" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q200" s="13">
+        <v>58</v>
+      </c>
+      <c r="R200">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>27</v>
+      </c>
+      <c r="B201" t="s">
+        <v>954</v>
+      </c>
+      <c r="C201">
+        <v>2020</v>
+      </c>
+      <c r="D201">
+        <v>200</v>
+      </c>
+      <c r="E201" t="s">
+        <v>786</v>
+      </c>
+      <c r="F201" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="G201" s="13">
+        <v>12.91</v>
+      </c>
+      <c r="H201" s="13">
+        <v>27</v>
+      </c>
+      <c r="I201" s="13">
+        <v>237</v>
+      </c>
+      <c r="J201" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K201" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L201" s="13" t="s">
+        <v>965</v>
+      </c>
+      <c r="M201">
+        <v>16.09</v>
+      </c>
+      <c r="N201">
+        <v>18.2</v>
+      </c>
+      <c r="O201">
+        <v>7.91</v>
+      </c>
+      <c r="P201">
+        <v>8.18</v>
+      </c>
+      <c r="Q201" s="13">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>27</v>
+      </c>
+      <c r="B202" t="s">
+        <v>954</v>
+      </c>
+      <c r="C202">
+        <v>2020</v>
+      </c>
+      <c r="D202">
+        <v>201</v>
+      </c>
+      <c r="E202" t="s">
+        <v>786</v>
+      </c>
+      <c r="F202" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="G202" s="13">
+        <v>12.91</v>
+      </c>
+      <c r="H202" s="13">
+        <v>27</v>
+      </c>
+      <c r="I202" s="13">
+        <v>237</v>
+      </c>
+      <c r="J202" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K202" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L202" s="13" t="s">
+        <v>966</v>
+      </c>
+      <c r="M202">
+        <v>12.18</v>
+      </c>
+      <c r="N202">
+        <v>13.95</v>
+      </c>
+      <c r="O202">
+        <v>7.44</v>
+      </c>
+      <c r="P202">
+        <v>7.91</v>
+      </c>
+      <c r="Q202" s="13">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>27</v>
+      </c>
+      <c r="B203" t="s">
+        <v>954</v>
+      </c>
+      <c r="C203">
+        <v>2020</v>
+      </c>
+      <c r="D203">
+        <v>202</v>
+      </c>
+      <c r="E203" t="s">
+        <v>786</v>
+      </c>
+      <c r="F203" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="G203" s="13">
+        <v>12.91</v>
+      </c>
+      <c r="H203" s="13">
+        <v>27</v>
+      </c>
+      <c r="I203" s="13">
+        <v>237</v>
+      </c>
+      <c r="J203" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="K203" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L203" s="13" t="s">
+        <v>963</v>
+      </c>
+      <c r="M203">
+        <v>3.91</v>
+      </c>
+      <c r="N203">
+        <v>4.26</v>
+      </c>
+      <c r="O203">
+        <v>5.2</v>
+      </c>
+      <c r="P203">
+        <v>6.03</v>
+      </c>
+      <c r="Q203" s="13">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>27</v>
+      </c>
+      <c r="B204" t="s">
+        <v>954</v>
+      </c>
+      <c r="C204">
+        <v>2020</v>
+      </c>
+      <c r="D204">
+        <v>203</v>
+      </c>
+      <c r="E204" t="s">
+        <v>786</v>
+      </c>
+      <c r="F204" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="G204" s="13">
+        <v>12.42</v>
+      </c>
+      <c r="H204" s="13">
+        <v>48</v>
+      </c>
+      <c r="I204" s="13">
+        <v>263</v>
+      </c>
+      <c r="J204" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K204" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L204" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="M204" s="5"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="5"/>
+      <c r="P204" s="5"/>
+      <c r="Q204" s="13">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>27</v>
+      </c>
+      <c r="B205" t="s">
+        <v>954</v>
+      </c>
+      <c r="C205">
+        <v>2020</v>
+      </c>
+      <c r="D205">
+        <v>204</v>
+      </c>
+      <c r="E205" t="s">
+        <v>786</v>
+      </c>
+      <c r="F205" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="G205" s="13">
+        <v>12.42</v>
+      </c>
+      <c r="H205" s="13">
+        <v>48</v>
+      </c>
+      <c r="I205" s="13">
+        <v>263</v>
+      </c>
+      <c r="J205" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K205" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L205" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="M205" s="5"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="13">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>27</v>
+      </c>
+      <c r="B206" t="s">
+        <v>954</v>
+      </c>
+      <c r="C206">
+        <v>2020</v>
+      </c>
+      <c r="D206">
+        <v>205</v>
+      </c>
+      <c r="E206" t="s">
+        <v>786</v>
+      </c>
+      <c r="F206" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="G206" s="13">
+        <v>12.42</v>
+      </c>
+      <c r="H206" s="13">
+        <v>48</v>
+      </c>
+      <c r="I206" s="13">
+        <v>263</v>
+      </c>
+      <c r="J206" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="K206" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L206" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="M206" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="N206" s="5">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="O206" s="5">
+        <v>5.14</v>
+      </c>
+      <c r="P206" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="Q206" s="13">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>27</v>
+      </c>
+      <c r="B207" t="s">
+        <v>954</v>
+      </c>
+      <c r="C207">
+        <v>2020</v>
+      </c>
+      <c r="D207">
+        <v>206</v>
+      </c>
+      <c r="E207" t="s">
+        <v>786</v>
+      </c>
+      <c r="F207" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="G207" s="13">
+        <v>14.41</v>
+      </c>
+      <c r="H207" s="13">
+        <v>33</v>
+      </c>
+      <c r="I207" s="13">
+        <v>222</v>
+      </c>
+      <c r="J207" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K207" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L207" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="M207" s="5"/>
+      <c r="N207" s="5"/>
+      <c r="O207" s="5"/>
+      <c r="P207" s="5"/>
+      <c r="Q207" s="13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>27</v>
+      </c>
+      <c r="B208" t="s">
+        <v>954</v>
+      </c>
+      <c r="C208">
+        <v>2020</v>
+      </c>
+      <c r="D208">
+        <v>207</v>
+      </c>
+      <c r="E208" t="s">
+        <v>786</v>
+      </c>
+      <c r="F208" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="G208" s="13">
+        <v>14.41</v>
+      </c>
+      <c r="H208" s="13">
+        <v>33</v>
+      </c>
+      <c r="I208" s="13">
+        <v>222</v>
+      </c>
+      <c r="J208" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="K208" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L208" s="13" t="s">
+        <v>970</v>
+      </c>
+      <c r="M208" s="5"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="5"/>
+      <c r="P208" s="5"/>
+      <c r="Q208" s="13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>27</v>
+      </c>
+      <c r="B209" t="s">
+        <v>954</v>
+      </c>
+      <c r="C209">
+        <v>2020</v>
+      </c>
+      <c r="D209">
+        <v>208</v>
+      </c>
+      <c r="E209" t="s">
+        <v>786</v>
+      </c>
+      <c r="F209" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="G209" s="13">
+        <v>14.41</v>
+      </c>
+      <c r="H209" s="13">
+        <v>33</v>
+      </c>
+      <c r="I209" s="13">
+        <v>222</v>
+      </c>
+      <c r="J209" s="13" t="s">
+        <v>760</v>
+      </c>
+      <c r="K209" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="L209" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="M209" s="5">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="N209" s="5">
+        <v>3.94</v>
+      </c>
+      <c r="O209" s="5">
+        <v>5.32</v>
+      </c>
+      <c r="P209" s="5">
+        <v>6.75</v>
+      </c>
+      <c r="Q209" s="13">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -20829,6 +21665,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F3729CDE7EAEF44A53FFF2D231E047F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1fa77f95735d7b1684a0f9f1d46cbd95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2efe24bd-a7c1-481d-a426-3119fcfe7149" xmlns:ns4="061b3361-47e6-4fd1-b7fc-4e45b1c77d33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9154525a1bae266bab7d07ed10795e6b" ns3:_="" ns4:_="">
     <xsd:import namespace="2efe24bd-a7c1-481d-a426-3119fcfe7149"/>
@@ -21051,15 +21896,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1B9A47D-9A6D-4087-8FA8-4E1598E50986}">
   <ds:schemaRefs>
@@ -21078,6 +21914,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F22CBBB-A5A9-4CD6-A22C-EA1A13EBE8FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21094,12 +21938,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E891FD6-EDA9-457E-8FC4-26FFD11BC970}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>